--- a/TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022/EQUIPOS BODEGA/P14NCC97-EQUIPO HUMERO PROXIMAL TIPO LISS.xlsx
+++ b/TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022/EQUIPOS BODEGA/P14NCC97-EQUIPO HUMERO PROXIMAL TIPO LISS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Ortomax-01\archivos compartidos ortomax bodega\TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022\EQUIPOS BODEGA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022\EQUIPOS BODEGA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BC89CCC-8BDA-4DFA-A2E8-2B1C34B14CE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72631AAB-0311-420F-AD4F-B70647E8144D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12120" yWindow="165" windowWidth="10365" windowHeight="12450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JAIRO" sheetId="1" r:id="rId1"/>
@@ -474,11 +474,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="42" formatCode="_ &quot;$&quot;* #,##0_ ;_ &quot;$&quot;* \-#,##0_ ;_ &quot;$&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;$&quot;* #,##0.00_ ;_ &quot;$&quot;* \-#,##0.00_ ;_ &quot;$&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_ &quot;$&quot;* #,##0_ ;_ &quot;$&quot;* \-#,##0_ ;_ &quot;$&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="_ &quot;$&quot;* #,##0.00_ ;_ &quot;$&quot;* \-#,##0.00_ ;_ &quot;$&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="167" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="31" x14ac:knownFonts="1">
     <font>
@@ -929,14 +929,14 @@
   <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="82">
@@ -965,7 +965,7 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -975,8 +975,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1061,7 +1061,7 @@
     <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="24" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="24" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1103,6 +1103,9 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1141,9 +1144,6 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -1233,9 +1233,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1273,7 +1273,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1379,7 +1379,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1521,7 +1521,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1534,8 +1534,8 @@
   </sheetPr>
   <dimension ref="A1:G100"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="C95" sqref="C95"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1560,18 +1560,18 @@
     <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="45"/>
       <c r="B2" s="46"/>
-      <c r="C2" s="71" t="s">
+      <c r="C2" s="72" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="73" t="s">
+      <c r="D2" s="74" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="74"/>
+      <c r="E2" s="75"/>
     </row>
     <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="47"/>
       <c r="B3" s="48"/>
-      <c r="C3" s="72"/>
+      <c r="C3" s="73"/>
       <c r="D3" s="49" t="s">
         <v>82</v>
       </c>
@@ -1580,22 +1580,22 @@
     <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="47"/>
       <c r="B4" s="48"/>
-      <c r="C4" s="75" t="s">
+      <c r="C4" s="76" t="s">
         <v>83</v>
       </c>
-      <c r="D4" s="77" t="s">
+      <c r="D4" s="78" t="s">
         <v>84</v>
       </c>
-      <c r="E4" s="78"/>
+      <c r="E4" s="79"/>
     </row>
     <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="51"/>
       <c r="B5" s="52"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="79" t="s">
+      <c r="C5" s="77"/>
+      <c r="D5" s="80" t="s">
         <v>85</v>
       </c>
-      <c r="E5" s="80"/>
+      <c r="E5" s="81"/>
     </row>
     <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
@@ -1647,10 +1647,10 @@
       <c r="E10" s="56"/>
     </row>
     <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="69" t="s">
+      <c r="A11" s="70" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="70"/>
+      <c r="B11" s="71"/>
       <c r="C11" s="57" t="s">
         <v>86</v>
       </c>
@@ -1776,13 +1776,13 @@
       <c r="E22" s="7"/>
     </row>
     <row r="23" spans="1:7" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="68"/>
-      <c r="B23" s="68"/>
-      <c r="C23" s="68"/>
-      <c r="D23" s="68"/>
-      <c r="E23" s="68"/>
-      <c r="F23" s="68"/>
-      <c r="G23" s="68"/>
+      <c r="A23" s="69"/>
+      <c r="B23" s="69"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="69"/>
     </row>
     <row r="24" spans="1:7" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
@@ -2042,7 +2042,7 @@
       <c r="B36" s="14"/>
       <c r="C36" s="8"/>
       <c r="D36" s="15"/>
-      <c r="F36" s="81" t="s">
+      <c r="F36" s="68" t="s">
         <v>18</v>
       </c>
       <c r="G36" s="16">
@@ -2054,7 +2054,7 @@
       <c r="B37" s="14"/>
       <c r="C37" s="8"/>
       <c r="D37" s="15"/>
-      <c r="F37" s="81" t="s">
+      <c r="F37" s="68" t="s">
         <v>19</v>
       </c>
       <c r="G37" s="17">
@@ -2066,7 +2066,7 @@
       <c r="B38" s="14"/>
       <c r="C38" s="8"/>
       <c r="D38" s="15"/>
-      <c r="F38" s="81" t="s">
+      <c r="F38" s="68" t="s">
         <v>20</v>
       </c>
       <c r="G38" s="17">
